--- a/OrbitdataS4716.xlsx
+++ b/OrbitdataS4716.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederikfinseth/Documents/Fysik, Bachelor - SDU/5. semester (bacheloropgave)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B1C8B55-4E9D-AD47-AA88-2AC74F88C5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCDA444-A947-3947-9B73-30B7EF284402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="500" windowWidth="16620" windowHeight="16300" xr2:uid="{0F8FD6AA-CFEA-BA43-B5EF-86CD68F7ACB1}"/>
+    <workbookView xWindow="10700" yWindow="500" windowWidth="16620" windowHeight="16300" xr2:uid="{0F8FD6AA-CFEA-BA43-B5EF-86CD68F7ACB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Time</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>ErrorDecl(mas)S4716</t>
+  </si>
+  <si>
+    <t>These points is removed due to Martin Jørgensen's discovery of the error</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4053A0C3-47AE-4D4C-83E4-897F1B49266F}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,7 +428,7 @@
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2003.44</v>
       </c>
@@ -459,7 +462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2005.26</v>
       </c>
@@ -476,7 +479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2005.58</v>
       </c>
@@ -493,7 +496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2006.33</v>
       </c>
@@ -510,7 +513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2007.25</v>
       </c>
@@ -527,7 +530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2008.46</v>
       </c>
@@ -544,7 +547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2010.24</v>
       </c>
@@ -561,7 +564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2013.4</v>
       </c>
@@ -578,7 +581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2013.66</v>
       </c>
@@ -595,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2014.5</v>
       </c>
@@ -612,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2015.3</v>
       </c>
@@ -629,7 +632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019.3</v>
       </c>
@@ -646,7 +649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2019.67</v>
       </c>
@@ -663,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2019.73</v>
       </c>
@@ -680,7 +683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2020.42</v>
       </c>
@@ -696,33 +699,51 @@
       <c r="E16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>2021.41</v>
+      </c>
+      <c r="B17">
+        <v>2.9</v>
+      </c>
+      <c r="C17">
+        <v>-11.76</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
         <v>2020.58</v>
       </c>
-      <c r="B17">
+      <c r="H17">
         <v>-50</v>
       </c>
-      <c r="C17">
+      <c r="I17">
         <v>50</v>
       </c>
-      <c r="D17">
+      <c r="J17">
         <v>5</v>
       </c>
-      <c r="E17">
+      <c r="K17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2021.24</v>
+        <v>2021.47</v>
       </c>
       <c r="B18">
-        <v>-51</v>
+        <v>12.9</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>-2.9</v>
       </c>
       <c r="D18">
         <v>0.5</v>
@@ -730,16 +751,31 @@
       <c r="E18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>2021.24</v>
+      </c>
+      <c r="H18">
+        <v>-51</v>
+      </c>
+      <c r="I18">
+        <v>34</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+      <c r="K18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2021.41</v>
+        <v>2021.56</v>
       </c>
       <c r="B19">
-        <v>2.9</v>
+        <v>18.2</v>
       </c>
       <c r="C19">
-        <v>-11.76</v>
+        <v>9.41</v>
       </c>
       <c r="D19">
         <v>0.5</v>
@@ -748,41 +784,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2021.47</v>
-      </c>
-      <c r="B20">
-        <v>12.9</v>
-      </c>
-      <c r="C20">
-        <v>-2.9</v>
-      </c>
-      <c r="D20">
-        <v>0.5</v>
-      </c>
-      <c r="E20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2021.56</v>
-      </c>
-      <c r="B21">
-        <v>18.2</v>
-      </c>
-      <c r="C21">
-        <v>9.41</v>
-      </c>
-      <c r="D21">
-        <v>0.5</v>
-      </c>
-      <c r="E21">
-        <v>0.5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>